--- a/k8s-cheetsheet.xlsx
+++ b/k8s-cheetsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\K8s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\K8s\kubernetes-cheetsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7305545-54AB-4E25-AC33-BAD36FD9B64E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE5119-8AB8-4E62-872A-DA61603CB69D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4673813A-C8CA-4F5F-8F16-F5EA136FDB5D}"/>
   </bookViews>
@@ -117,13 +117,13 @@
     <t>how to list all resources types?</t>
   </si>
   <si>
-    <t>how to make a node unschedulable ?</t>
-  </si>
-  <si>
     <t>use case</t>
   </si>
   <si>
     <t>command</t>
+  </si>
+  <si>
+    <t>how to make a node unschedulable?</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ACE3D7-9FDD-4919-8B64-625BA13E2A47}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,10 +509,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -605,7 +605,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>

--- a/k8s-cheetsheet.xlsx
+++ b/k8s-cheetsheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\K8s\kubernetes-cheetsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learnings\K8s\kubernetes-cheetsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE5119-8AB8-4E62-872A-DA61603CB69D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924AD02-E6BA-4336-838F-B57D6192A3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4673813A-C8CA-4F5F-8F16-F5EA136FDB5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4673813A-C8CA-4F5F-8F16-F5EA136FDB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="imperative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>How to check the logs of running pod?</t>
   </si>
@@ -124,6 +124,103 @@
   </si>
   <si>
     <t>how to make a node unschedulable?</t>
+  </si>
+  <si>
+    <t>how to get end points of a service running in K8s?</t>
+  </si>
+  <si>
+    <t>kubectl get end my-service-name</t>
+  </si>
+  <si>
+    <t>how to generate kubeadm join command?</t>
+  </si>
+  <si>
+    <t>kubeadm token create --print-join-command</t>
+  </si>
+  <si>
+    <t>What is BGP?</t>
+  </si>
+  <si>
+    <t>Border Gateway Protocol</t>
+  </si>
+  <si>
+    <t>how to create a namespace?</t>
+  </si>
+  <si>
+    <t>kubectl create ns my-name-space</t>
+  </si>
+  <si>
+    <t>get all pods of service using "selector" ?</t>
+  </si>
+  <si>
+    <t>kubectl get pods --selector="app=my-service-running" --output=wide</t>
+  </si>
+  <si>
+    <t>how to check where is gateway is running?</t>
+  </si>
+  <si>
+    <t>kubectl describe svc ingress-nginx -n ingress-nginx</t>
+  </si>
+  <si>
+    <t>how to check if kubelet is running on a node?</t>
+  </si>
+  <si>
+    <t>journalctl -u kubelet</t>
+  </si>
+  <si>
+    <t>how to get pod IP addresses using kubectl command?</t>
+  </si>
+  <si>
+    <t>kubectl get pods -l k8s-app -o yaml | grep podIP</t>
+  </si>
+  <si>
+    <t>Kubectl command to get deployment yaml file</t>
+  </si>
+  <si>
+    <t>kubectl get Deployment -l k8s-app -o yaml</t>
+  </si>
+  <si>
+    <t>how to scale up deployment of an application (number of pods) using Kubectl?</t>
+  </si>
+  <si>
+    <t>kubectl scale --replica 3 deployment/my-app-hw</t>
+  </si>
+  <si>
+    <t>what is difference between statefulset and replicaset?</t>
+  </si>
+  <si>
+    <t>What is "naked pod" ?</t>
+  </si>
+  <si>
+    <t>what is the recommended order of creating service and deployment(pods)?</t>
+  </si>
+  <si>
+    <t>it is recommended to create service before it's corresponding backend workload (pods)</t>
+  </si>
+  <si>
+    <t>how to create multiple resource at time when we have more than one yml file?</t>
+  </si>
+  <si>
+    <t>what is nodeSelector used when you want to create a POD?</t>
+  </si>
+  <si>
+    <t>Deploy a redis pod using the redis:alpine image with the labels set to tier=db.</t>
+  </si>
+  <si>
+    <t>kubectl run --generator=run-pod/v1 redis --image=redis:alpine -l tier=db</t>
+  </si>
+  <si>
+    <t>Create a service redis-service to expose the redis application within the cluster on port 6379.</t>
+  </si>
+  <si>
+    <t>kubectl expose pod redis --port 6379 --name redis-service</t>
+  </si>
+  <si>
+    <t>Create a deployment named webapp using the image kodekloud/webapp-color with 3 replicas</t>
+  </si>
+  <si>
+    <t>kubectl create deployment webapp --image kodekloud/webapp-color
+kubectl scale deployment webapp --replicas=3</t>
   </si>
 </sst>
 </file>
@@ -173,13 +270,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ACE3D7-9FDD-4919-8B64-625BA13E2A47}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,6 +719,165 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D2AB0-ACC6-457A-B065-C77AACC8940F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/k8s-cheetsheet.xlsx
+++ b/k8s-cheetsheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learnings\K8s\kubernetes-cheetsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924AD02-E6BA-4336-838F-B57D6192A3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AB8EA-217A-47F0-A0CC-83C0FC2E49C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4673813A-C8CA-4F5F-8F16-F5EA136FDB5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4673813A-C8CA-4F5F-8F16-F5EA136FDB5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="commands" sheetId="1" r:id="rId1"/>
     <sheet name="imperative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>How to check the logs of running pod?</t>
   </si>
@@ -221,6 +221,12 @@
   <si>
     <t>kubectl create deployment webapp --image kodekloud/webapp-color
 kubectl scale deployment webapp --replicas=3</t>
+  </si>
+  <si>
+    <t>How to verify logs of a multi-container pod?</t>
+  </si>
+  <si>
+    <t>kubectl logs -f webapp --all-containers=true</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ACE3D7-9FDD-4919-8B64-625BA13E2A47}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,6 +833,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -836,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D2AB0-ACC6-457A-B065-C77AACC8940F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/k8s-cheetsheet.xlsx
+++ b/k8s-cheetsheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t xml:space="preserve">use case</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t xml:space="preserve">k create cronjob dice –image=nginx:1.15 --schedule="*/1 * * * *"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to taint to a node with key as app_type, value as alpha and effect NoSchedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k taint node node01 app_type=alpha:NoSchedule</t>
   </si>
   <si>
     <t xml:space="preserve">Deploy a redis pod using the redis:alpine image with the labels set to tier=db.</t>
@@ -393,13 +399,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.36"/>
@@ -687,6 +693,14 @@
       </c>
       <c r="B37" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +725,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
@@ -727,26 +741,26 @@
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
